--- a/Exp2/exp2.xlsx
+++ b/Exp2/exp2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="43">
   <si>
     <t xml:space="preserve">katheti</t>
   </si>
@@ -141,15 +141,25 @@
   <si>
     <t xml:space="preserve">&amp; </t>
   </si>
+  <si>
+    <t xml:space="preserve">\pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\\hline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\ \hline</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -272,11 +282,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,11 +530,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40183328"/>
-        <c:axId val="52628660"/>
+        <c:axId val="77885062"/>
+        <c:axId val="52069391"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40183328"/>
+        <c:axId val="77885062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,12 +576,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52628660"/>
+        <c:crossAx val="52069391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52628660"/>
+        <c:axId val="52069391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +623,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40183328"/>
+        <c:crossAx val="77885062"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -652,9 +662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -663,7 +673,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="2641320"/>
-        <a:ext cx="4606560" cy="2741760"/>
+        <a:ext cx="4610520" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -681,13 +691,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK85"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V44" activeCellId="0" sqref="V44:AD49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T80" activeCellId="0" sqref="T80:AG85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K1" s="1" t="s">
@@ -1548,7 +1558,7 @@
       <c r="H34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -1800,7 +1810,7 @@
         <f aca="false">G38*6.63*10^(-34)</f>
         <v>4.28365314549429E-024</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="1" t="n">
         <f aca="false">H38*6.26*10^18</f>
         <v>2.68156686907942E-005</v>
       </c>
@@ -1874,7 +1884,7 @@
         <f aca="false">G39*6.63*10^(-34)</f>
         <v>1.35020556967953E-024</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="1" t="n">
         <f aca="false">H39*6.26*10^18</f>
         <v>8.45228686619386E-006</v>
       </c>
@@ -2131,7 +2141,7 @@
         <f aca="false">G44*6.63*10^(-34)</f>
         <v>4.86549332073365E-024</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="1" t="n">
         <f aca="false">H44*6.26*10^18</f>
         <v>3.04579881877926E-005</v>
       </c>
@@ -2163,7 +2173,7 @@
       <c r="V44" s="1" t="n">
         <v>8.13</v>
       </c>
-      <c r="W44" s="0" t="s">
+      <c r="W44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X44" s="1" t="s">
@@ -2173,20 +2183,20 @@
         <f aca="false">Z34*6.24*10^(18+5)</f>
         <v>7.4439964950712</v>
       </c>
-      <c r="Z44" s="0" t="s">
+      <c r="Z44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA44" s="5" t="n">
         <f aca="false">AA34*6.24*10^(18+5)</f>
         <v>0.393777583569044</v>
       </c>
-      <c r="AB44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC44" s="0" t="s">
+      <c r="AB44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD44" s="0" t="s">
+      <c r="AD44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE44" s="1" t="n">
@@ -2220,7 +2230,7 @@
         <f aca="false">G45*6.63*10^(-34)</f>
         <v>1.36507071699191E-024</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <f aca="false">H45*6.26*10^18</f>
         <v>8.54534268836936E-006</v>
       </c>
@@ -2243,7 +2253,7 @@
       <c r="V45" s="1" t="n">
         <v>6.03</v>
       </c>
-      <c r="W45" s="0" t="s">
+      <c r="W45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X45" s="1" t="s">
@@ -2253,20 +2263,20 @@
         <f aca="false">Z35*6.24*10^(18+5)</f>
         <v>7.70382934863067</v>
       </c>
-      <c r="Z45" s="0" t="s">
+      <c r="Z45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA45" s="5" t="n">
         <f aca="false">AA35*6.24*10^(18+5)</f>
         <v>0.791264468777047</v>
       </c>
-      <c r="AB45" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC45" s="0" t="s">
+      <c r="AB45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD45" s="0" t="s">
+      <c r="AD45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AH45" s="4" t="n">
@@ -2323,7 +2333,7 @@
       <c r="V46" s="1" t="n">
         <v>9.24</v>
       </c>
-      <c r="W46" s="0" t="s">
+      <c r="W46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X46" s="1" t="s">
@@ -2333,20 +2343,20 @@
         <f aca="false">Z36*6.24*10^(18+5)</f>
         <v>7.67244910714283</v>
       </c>
-      <c r="Z46" s="0" t="s">
+      <c r="Z46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA46" s="5" t="n">
         <f aca="false">AA36*6.24*10^(18+5)</f>
         <v>0.754498791182436</v>
       </c>
-      <c r="AB46" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC46" s="0" t="s">
+      <c r="AB46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC46" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD46" s="0" t="s">
+      <c r="AD46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE46" s="2" t="s">
@@ -2410,7 +2420,7 @@
       <c r="V47" s="1" t="n">
         <v>5.09</v>
       </c>
-      <c r="W47" s="0" t="s">
+      <c r="W47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X47" s="1" t="s">
@@ -2420,20 +2430,20 @@
         <f aca="false">Z37*6.24*10^(18+5)</f>
         <v>6.73586819221967</v>
       </c>
-      <c r="Z47" s="0" t="s">
+      <c r="Z47" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA47" s="5" t="n">
         <f aca="false">AA37*6.24*10^(18+5)</f>
         <v>0.92386912300893</v>
       </c>
-      <c r="AB47" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC47" s="0" t="s">
+      <c r="AB47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD47" s="0" t="s">
+      <c r="AD47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE47" s="1" t="n">
@@ -2485,7 +2495,7 @@
       <c r="V48" s="1" t="n">
         <v>7.03</v>
       </c>
-      <c r="W48" s="0" t="s">
+      <c r="W48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X48" s="1" t="s">
@@ -2495,20 +2505,20 @@
         <f aca="false">Z38*6.24*10^(18+5)</f>
         <v>6.82655321581116</v>
       </c>
-      <c r="Z48" s="0" t="s">
+      <c r="Z48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA48" s="5" t="n">
         <f aca="false">AA38*6.24*10^(18+5)</f>
         <v>0.400091465356448</v>
       </c>
-      <c r="AB48" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC48" s="0" t="s">
+      <c r="AB48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD48" s="0" t="s">
+      <c r="AD48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE48" s="1" t="n">
@@ -2553,7 +2563,7 @@
       <c r="V49" s="1" t="n">
         <v>10.07</v>
       </c>
-      <c r="W49" s="0" t="s">
+      <c r="W49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X49" s="1" t="s">
@@ -2563,20 +2573,20 @@
         <f aca="false">Z39*6.24*10^(18+5)</f>
         <v>8.52391133501257</v>
       </c>
-      <c r="Z49" s="0" t="s">
+      <c r="Z49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AA49" s="5" t="n">
         <f aca="false">AA39*6.24*10^(18+5)</f>
         <v>1.01681690877764</v>
       </c>
-      <c r="AB49" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC49" s="0" t="s">
+      <c r="AB49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD49" s="0" t="s">
+      <c r="AD49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AE49" s="1" t="n">
@@ -2608,7 +2618,7 @@
         <f aca="false">G50*6.63*10^(-34)</f>
         <v>5.38571118095493E-024</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50" s="1" t="n">
         <f aca="false">H50*6.26*10^18</f>
         <v>3.37145519927779E-005</v>
       </c>
@@ -2668,7 +2678,7 @@
         <f aca="false">G51*6.63*10^(-34)</f>
         <v>1.35661777271834E-024</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="I51" s="1" t="n">
         <f aca="false">H51*6.26*10^18</f>
         <v>8.49242725721681E-006</v>
       </c>
@@ -2718,7 +2728,7 @@
       <c r="H52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="0" t="e">
+      <c r="I52" s="1" t="e">
         <f aca="false">H52*6.26*10^18</f>
         <v>#VALUE!</v>
       </c>
@@ -2915,7 +2925,7 @@
         <f aca="false">G56*6.63*10^(-34)</f>
         <v>5.53744803731793E-024</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="I56" s="1" t="n">
         <f aca="false">H56*6.26*10^18</f>
         <v>3.46644247136102E-005</v>
       </c>
@@ -2975,7 +2985,7 @@
         <f aca="false">G57*6.63*10^(-34)</f>
         <v>1.90725778708939E-024</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="1" t="n">
         <f aca="false">H57*6.26*10^18</f>
         <v>1.19394337471796E-005</v>
       </c>
@@ -3218,7 +3228,7 @@
         <f aca="false">G62*6.63*10^(-34)</f>
         <v>5.49476930325192E-024</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="I62" s="1" t="n">
         <f aca="false">H62*6.26*10^18</f>
         <v>3.4397255838357E-005</v>
       </c>
@@ -3278,7 +3288,7 @@
         <f aca="false">G63*6.63*10^(-34)</f>
         <v>1.38404081336879E-024</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="I63" s="1" t="n">
         <f aca="false">H63*6.26*10^18</f>
         <v>8.66409549168863E-006</v>
       </c>
@@ -3521,7 +3531,7 @@
         <f aca="false">G68*6.63*10^(-34)</f>
         <v>5.89428182790452E-024</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="1" t="n">
         <f aca="false">H68*6.26*10^18</f>
         <v>3.68982042426823E-005</v>
       </c>
@@ -3581,7 +3591,7 @@
         <f aca="false">G69*6.63*10^(-34)</f>
         <v>1.5542067969374E-024</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="I69" s="1" t="n">
         <f aca="false">H69*6.26*10^18</f>
         <v>9.72933454882812E-006</v>
       </c>
@@ -3628,11 +3638,11 @@
       <c r="E72" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="F72" s="7" t="n">
+      <c r="F72" s="4" t="n">
         <f aca="false">C72*6.24*10^18*10^5</f>
         <v>2.67299956278844</v>
       </c>
-      <c r="G72" s="7" t="n">
+      <c r="G72" s="4" t="n">
         <f aca="false">D72*6.24*10^18*10^5</f>
         <v>0.842528275480027</v>
       </c>
@@ -3655,11 +3665,11 @@
       <c r="E73" s="6" t="n">
         <v>7.13</v>
       </c>
-      <c r="F73" s="7" t="n">
+      <c r="F73" s="4" t="n">
         <f aca="false">C73*6.24*10^18*10^5</f>
         <v>3.0360678321378</v>
       </c>
-      <c r="G73" s="7" t="n">
+      <c r="G73" s="4" t="n">
         <f aca="false">D73*6.24*10^18*10^5</f>
         <v>0.851804127402952</v>
       </c>
@@ -3682,11 +3692,11 @@
       <c r="E74" s="6" t="n">
         <v>9.09</v>
       </c>
-      <c r="F74" s="7" t="n">
+      <c r="F74" s="4" t="n">
         <f aca="false">C74*6.24*10^18*10^5</f>
         <v>3.36068377691588</v>
       </c>
-      <c r="G74" s="7" t="n">
+      <c r="G74" s="4" t="n">
         <f aca="false">D74*6.24*10^18*10^5</f>
         <v>0.846529490176244</v>
       </c>
@@ -3709,11 +3719,11 @@
       <c r="E75" s="6" t="n">
         <v>6.18</v>
       </c>
-      <c r="F75" s="7" t="n">
+      <c r="F75" s="4" t="n">
         <f aca="false">C75*6.24*10^18*10^5</f>
         <v>3.45536757528639</v>
       </c>
-      <c r="G75" s="7" t="n">
+      <c r="G75" s="4" t="n">
         <f aca="false">D75*6.24*10^18*10^5</f>
         <v>1.19012885914378</v>
       </c>
@@ -3736,11 +3746,11 @@
       <c r="E76" s="6" t="n">
         <v>8.13</v>
       </c>
-      <c r="F76" s="7" t="n">
+      <c r="F76" s="4" t="n">
         <f aca="false">C76*6.24*10^18*10^5</f>
         <v>3.4287360452292</v>
       </c>
-      <c r="G76" s="7" t="n">
+      <c r="G76" s="4" t="n">
         <f aca="false">D76*6.24*10^18*10^5</f>
         <v>0.863641467542125</v>
       </c>
@@ -3763,18 +3773,18 @@
       <c r="E77" s="6" t="n">
         <v>10.05</v>
       </c>
-      <c r="F77" s="7" t="n">
+      <c r="F77" s="4" t="n">
         <f aca="false">C77*6.24*10^18*10^5</f>
         <v>3.67803186061242</v>
       </c>
-      <c r="G77" s="7" t="n">
+      <c r="G77" s="4" t="n">
         <f aca="false">D77*6.24*10^18*10^5</f>
         <v>0.969825041288938</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>5.255</v>
       </c>
     </row>
@@ -3782,176 +3792,556 @@
       <c r="C80" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="8" t="n">
-        <v>2.67299956278844</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" s="5" t="n">
-        <v>0.842528275480027</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>38</v>
+      <c r="E80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <f aca="false">E38</f>
+        <v>5852</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" s="8" t="n">
+        <f aca="false">E39</f>
+        <v>1148.14110631054</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L80" s="8" t="n">
+        <f aca="false">F38</f>
+        <v>45287</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N80" s="8" t="n">
+        <f aca="false">F39</f>
+        <v>11172.0145005276</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W80" s="8" t="n">
+        <f aca="false">R38</f>
+        <v>7885.33333333333</v>
+      </c>
+      <c r="X80" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" s="8" t="n">
+        <f aca="false">R39</f>
+        <v>396.159432926059</v>
+      </c>
+      <c r="Z80" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA80" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB80" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC80" s="8" t="n">
+        <f aca="false">S38</f>
+        <v>21912</v>
+      </c>
+      <c r="AD80" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE80" s="8" t="n">
+        <v>362.846462784958</v>
+      </c>
+      <c r="AF80" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG80" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="6" t="n">
         <v>7.13</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="8" t="n">
-        <v>3.0360678321378</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" s="5" t="n">
-        <v>0.851804127402952</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>38</v>
+      <c r="E81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <f aca="false">E44</f>
+        <v>6834</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" s="8" t="n">
+        <f aca="false">E45</f>
+        <v>954.169796210297</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L81" s="8" t="n">
+        <f aca="false">F44</f>
+        <v>46562</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N81" s="8" t="n">
+        <v>11331.0142970521</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W81" s="8" t="n">
+        <f aca="false">R44</f>
+        <v>8050.33333333333</v>
+      </c>
+      <c r="X81" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y81" s="8" t="n">
+        <f aca="false">R45</f>
+        <v>821.97638967624</v>
+      </c>
+      <c r="Z81" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA81" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB81" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC81" s="8" t="n">
+        <f aca="false">S44</f>
+        <v>21616</v>
+      </c>
+      <c r="AD81" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE81" s="8" t="n">
+        <v>240.800055370979</v>
+      </c>
+      <c r="AF81" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG81" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="6" t="n">
         <v>9.09</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" s="8" t="n">
-        <v>3.36068377691588</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="5" t="n">
-        <v>0.846529490176244</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>38</v>
+      <c r="E82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <f aca="false">E50</f>
+        <v>7288.5</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" s="8" t="n">
+        <f aca="false">E51</f>
+        <v>324.000385802239</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" s="8" t="n">
+        <f aca="false">F50</f>
+        <v>44862</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N82" s="8" t="n">
+        <v>11123.0145644065</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W82" s="8" t="n">
+        <f aca="false">R50</f>
+        <v>8308.33333333333</v>
+      </c>
+      <c r="X82" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y82" s="8" t="n">
+        <f aca="false">R51</f>
+        <v>804.519226112829</v>
+      </c>
+      <c r="Z82" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA82" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB82" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC82" s="8" t="n">
+        <f aca="false">S50</f>
+        <v>22400</v>
+      </c>
+      <c r="AD82" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE82" s="8" t="n">
+        <v>384.021700775707</v>
+      </c>
+      <c r="AF82" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG82" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="6" t="n">
         <v>6.18</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" s="8" t="n">
-        <v>3.45536757528639</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" s="5" t="n">
-        <v>1.19012885914378</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>38</v>
+      <c r="E83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="7" t="n">
+        <f aca="false">E56</f>
+        <v>7896</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" s="8" t="n">
+        <f aca="false">E57</f>
+        <v>2128.07612645789</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L83" s="8" t="n">
+        <f aca="false">F56</f>
+        <v>47269.5</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N83" s="8" t="n">
+        <v>10137.5159802587</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W83" s="8" t="n">
+        <f aca="false">R56</f>
+        <v>7257.33333333333</v>
+      </c>
+      <c r="X83" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" s="8" t="n">
+        <f aca="false">R57</f>
+        <v>978.571218476014</v>
+      </c>
+      <c r="Z83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA83" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC83" s="8" t="n">
+        <f aca="false">S56</f>
+        <v>22287</v>
+      </c>
+      <c r="AD83" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE83" s="8" t="n">
+        <v>559.578611298022</v>
+      </c>
+      <c r="AF83" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG83" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="6" t="n">
         <v>8.13</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" s="8" t="n">
-        <v>3.4287360452292</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" s="5" t="n">
-        <v>0.863641467542125</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>38</v>
+      <c r="E84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <f aca="false">E62</f>
+        <v>7740</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="8" t="n">
+        <f aca="false">E63</f>
+        <v>804.201467295354</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L84" s="8" t="n">
+        <f aca="false">F62</f>
+        <v>46695.5</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N84" s="8" t="n">
+        <v>10714.5151196869</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W84" s="8" t="n">
+        <f aca="false">R62</f>
+        <v>7082.66666666667</v>
+      </c>
+      <c r="X84" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y84" s="8" t="n">
+        <f aca="false">R63</f>
+        <v>359.273443782598</v>
+      </c>
+      <c r="Z84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA84" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC84" s="8" t="n">
+        <f aca="false">S62</f>
+        <v>21461.6666666667</v>
+      </c>
+      <c r="AD84" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE84" s="8" t="n">
+        <v>630.042385405464</v>
+      </c>
+      <c r="AF84" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG84" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="6" t="n">
         <v>10.05</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="8" t="n">
-        <v>3.67803186061242</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" s="5" t="n">
-        <v>0.969825041288938</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
+      <c r="E85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <f aca="false">E68</f>
+        <v>8562</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="8" t="n">
+        <f aca="false">E69</f>
+        <v>642.252286877984</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L85" s="8" t="n">
+        <f aca="false">F68</f>
+        <v>48153.5</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" s="8" t="n">
+        <v>12172.5133086803</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W85" s="8" t="n">
+        <f aca="false">R68</f>
+        <v>9215.66666666667</v>
+      </c>
+      <c r="X85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y85" s="8" t="n">
+        <f aca="false">R69</f>
+        <v>1090.91748678026</v>
+      </c>
+      <c r="Z85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA85" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC85" s="8" t="n">
+        <f aca="false">S68</f>
+        <v>22364.3333333333</v>
+      </c>
+      <c r="AD85" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE85" s="8" t="n">
+        <v>329.536487048546</v>
+      </c>
+      <c r="AF85" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG85" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
